--- a/Documents/fuelUsageRatio.xlsx
+++ b/Documents/fuelUsageRatio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="27240" windowHeight="14820"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="27240" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>g/l Diesel</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>idleRpm</t>
+  </si>
+  <si>
+    <t>ratedRpm</t>
+  </si>
+  <si>
+    <t>maxAllowedRpm</t>
   </si>
 </sst>
 </file>
@@ -168,8 +177,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -197,67 +206,73 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$A$12</c:f>
+              <c:f>Sheet1!$A$6:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1250</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1750</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200</c:v>
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$12</c:f>
+              <c:f>Sheet1!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>220.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.52500000000001</c:v>
+                  <c:v>216.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.70000000000002</c:v>
+                  <c:v>209.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.52500000000001</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233</c:v>
+                  <c:v>211.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291.25</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>466</c:v>
+                  <c:v>287.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -267,14 +282,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="390107448"/>
-        <c:axId val="254816496"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="390107448"/>
+        <c:axId val="268049776"/>
+        <c:axId val="422135784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="268049776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="750"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -315,19 +331,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254816496"/>
+        <c:crossAx val="422135784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="254816496"/>
+        <c:axId val="422135784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="290"/>
-          <c:min val="190"/>
+          <c:max val="250"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -376,9 +390,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390107448"/>
+        <c:crossAx val="268049776"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -985,16 +999,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1017,9 +1031,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
+  <autoFilter ref="A1:J2"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="g/l Diesel"/>
     <tableColumn id="2" name="g/kWh"/>
     <tableColumn id="3" name="l/kWh">
@@ -1035,14 +1049,19 @@
     <tableColumn id="7" name="ms per h" dataDxfId="1">
       <calculatedColumnFormula>60*60*1000</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="idleRpm"/>
+    <tableColumn id="9" name="ratedRpm"/>
+    <tableColumn id="10" name="maxAllowedRpm">
+      <calculatedColumnFormula>Table1[ratedRpm]+300</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C12" totalsRowShown="0">
-  <autoFilter ref="A5:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C13" totalsRowShown="0">
+  <autoFilter ref="A5:C13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="rpm"/>
     <tableColumn id="2" name="factor"/>
@@ -1317,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1348,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,35 +1370,54 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>830</v>
       </c>
       <c r="B2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <f>Table1[g/kWh]/Table1[g/l Diesel]</f>
-        <v>0.28072289156626506</v>
+        <v>0.27710843373493976</v>
       </c>
       <c r="D2">
         <f>Table1[l/kWh]/3600000</f>
-        <v>7.7978580990629184E-8</v>
+        <v>7.697456492637216E-8</v>
       </c>
       <c r="E2">
         <v>360</v>
       </c>
       <c r="F2">
         <f>Table1[l/kWh]*Table1[PS]/1.36</f>
-        <v>74.309000708717221</v>
+        <v>73.352232459248754</v>
       </c>
       <c r="G2" s="1">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
+      <c r="H2">
+        <v>900</v>
+      </c>
+      <c r="I2">
+        <v>2100</v>
+      </c>
+      <c r="J2">
+        <f>Table1[ratedRpm]+300</f>
+        <v>2400</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1390,88 +1428,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f>Table1[idleRpm]-100</f>
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
+        <v>220.79999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Table1[idleRpm]</f>
         <v>900</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1250</v>
-      </c>
       <c r="B7">
-        <v>0.92500000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="C7">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>215.52500000000001</v>
+        <v>216.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1500</v>
+        <f>0.8*Table1[idleRpm]+0.2*Table1[ratedRpm]</f>
+        <v>1140</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C8">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>209.70000000000002</v>
+        <v>209.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1750</v>
+        <f>0.6*Table1[idleRpm]+0.4*Table1[ratedRpm]</f>
+        <v>1380</v>
       </c>
       <c r="B9">
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>215.52500000000001</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2000</v>
+        <f>0.3*Table1[idleRpm]+0.7*Table1[ratedRpm]</f>
+        <v>1740</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C10">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>233</v>
+        <v>211.60000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f>Table1[ratedRpm]</f>
         <v>2100</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>0.5*Table1[ratedRpm]+0.5*Table1[maxAllowedRpm]</f>
+        <v>2250</v>
+      </c>
+      <c r="B12">
         <v>1.25</v>
-      </c>
-      <c r="C11" s="2">
-        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>291.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2200</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
       </c>
       <c r="C12" s="2">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>466</v>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Table1[maxAllowedRpm]</f>
+        <v>2400</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/fuelUsageRatio.xlsx
+++ b/Documents/fuelUsageRatio.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45146D36-3F76-4D4A-B5FA-E690527F2883}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="27240" windowHeight="14820"/>
+    <workbookView xWindow="6720" yWindow="0" windowWidth="27240" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>g/l Diesel</t>
   </si>
@@ -64,11 +65,20 @@
   <si>
     <t>maxAllowedRpm</t>
   </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>quotient</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
@@ -109,7 +119,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -130,7 +146,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -144,7 +160,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -176,9 +191,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7960943384750702E-2"/>
+          <c:y val="1.9739513692863864E-2"/>
+          <c:w val="0.9421876008814406"/>
+          <c:h val="0.78333057424425723"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -204,14 +229,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$A$13</c:f>
+              <c:f>Sheet1!$A$6:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>800</c:v>
                 </c:pt>
@@ -222,18 +259,21 @@
                   <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1740</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2400</c:v>
                 </c:pt>
               </c:numCache>
@@ -241,38 +281,46 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$13</c:f>
+              <c:f>Sheet1!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>220.79999999999998</c:v>
+                  <c:v>287.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>253.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>216.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>209.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>211.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>287.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B53D-457A-90BF-F7FEC0A88AB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -340,7 +388,7 @@
         <c:axId val="422135784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
+          <c:max val="300"/>
           <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -439,7 +487,543 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63025210084033612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70993914807302227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92024539877300615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8945-40B8-A21F-2DC973F7FC57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quotient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8945-40B8-A21F-2DC973F7FC57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617404896"/>
+        <c:axId val="617407520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617404896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617407520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617407520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617404896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -995,6 +1579,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1002,17 +2102,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1027,31 +2133,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9AFD03-65E3-4A93-9620-3EC657304B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="g/l Diesel"/>
-    <tableColumn id="2" name="g/kWh"/>
-    <tableColumn id="3" name="l/kWh">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="g/l Diesel"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="g/kWh"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="l/kWh">
       <calculatedColumnFormula>Table1[g/kWh]/Table1[g/l Diesel]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="l/kW ms">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="l/kW ms">
       <calculatedColumnFormula>Table1[l/kWh]/3600000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PS"/>
-    <tableColumn id="6" name="l/h">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PS"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="l/h">
       <calculatedColumnFormula>Table1[l/kWh]*Table1[PS]/1.36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="ms per h" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ms per h" dataDxfId="3">
       <calculatedColumnFormula>60*60*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="idleRpm"/>
-    <tableColumn id="9" name="ratedRpm"/>
-    <tableColumn id="10" name="maxAllowedRpm">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="idleRpm"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ratedRpm"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="maxAllowedRpm">
       <calculatedColumnFormula>Table1[ratedRpm]+300</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1060,13 +2202,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:C13" totalsRowShown="0">
-  <autoFilter ref="A5:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A5:C14" totalsRowShown="0">
+  <autoFilter ref="A5:C14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="rpm"/>
-    <tableColumn id="2" name="factor"/>
-    <tableColumn id="3" name="ratio" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="rpm"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="factor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ratio" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[factor]]*Table1[g/kWh]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2059F489-3D13-48C1-80B7-9B35AF0D1468}" name="Table3" displayName="Table3" ref="A21:D32" totalsRowShown="0">
+  <autoFilter ref="A21:D32" xr:uid="{2AB16DB5-F252-4ADA-A0FD-1E2DE4383C1B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9BBB00BE-57B4-4AE6-8005-38F69855F568}" name="load"/>
+    <tableColumn id="4" xr3:uid="{91796160-4F3E-4FE7-8D0B-C1692423C135}" name="result" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{03B6BBEB-175A-4ABA-AD4D-13FB208E40F0}" name="quotient"/>
+    <tableColumn id="3" xr3:uid="{67A23A71-F8A7-47FA-B3E8-5B228FEFC5B2}" name="factor" dataDxfId="1">
+      <calculatedColumnFormula>1/Table3[[#This Row],[quotient]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1335,16 +2494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1434,11 +2594,11 @@
         <v>800</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="C6" s="2">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>220.79999999999998</v>
+        <v>287.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1447,11 +2607,11 @@
         <v>900</v>
       </c>
       <c r="B7">
-        <v>0.94</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>216.2</v>
+        <v>253.00000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,85 +2620,289 @@
         <v>1140</v>
       </c>
       <c r="B8">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="C8">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>209.3</v>
+        <v>216.2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>0.6*Table1[idleRpm]+0.4*Table1[ratedRpm]</f>
-        <v>1380</v>
+        <f>0.65*Table1[idleRpm]+0.35*Table1[ratedRpm]</f>
+        <v>1320</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>0.3*Table1[idleRpm]+0.7*Table1[ratedRpm]</f>
-        <v>1740</v>
+        <f>0.55*Table1[idleRpm]+0.45*Table1[ratedRpm]</f>
+        <v>1440</v>
       </c>
       <c r="B10">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>211.60000000000002</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Table1[ratedRpm]</f>
-        <v>2100</v>
+        <f>0.3*Table1[idleRpm]+0.7*Table1[ratedRpm]</f>
+        <v>1740</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C11">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>230</v>
+        <v>211.60000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>0.5*Table1[ratedRpm]+0.5*Table1[maxAllowedRpm]</f>
-        <v>2250</v>
+        <f>Table1[ratedRpm]</f>
+        <v>2100</v>
       </c>
       <c r="B12">
-        <v>1.25</v>
-      </c>
-      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
-        <v>287.5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f>0.5*Table1[ratedRpm]+0.5*Table1[maxAllowedRpm]</f>
+        <v>2250</v>
+      </c>
+      <c r="B13">
+        <v>1.25</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <f>Table1[maxAllowedRpm]</f>
         <v>2400</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <f>Table2[[#This Row],[factor]]*Table1[g/kWh]</f>
         <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1E-3</v>
+      </c>
+      <c r="D22">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.01</v>
+      </c>
+      <c r="B23">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C23">
+        <v>0.06</v>
+      </c>
+      <c r="D23">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.04</v>
+      </c>
+      <c r="B24">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>0.16</v>
+      </c>
+      <c r="D24">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.12</v>
+      </c>
+      <c r="B25">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C25">
+        <v>0.36</v>
+      </c>
+      <c r="D25">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.2</v>
+      </c>
+      <c r="B26">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.4</v>
+      </c>
+      <c r="B27">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.6</v>
+      </c>
+      <c r="B28">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.63025210084033612</v>
+      </c>
+      <c r="C28">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D28">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1.0504201680672269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.7</v>
+      </c>
+      <c r="B29">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.70993914807302227</v>
+      </c>
+      <c r="C29">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D29">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1.0141987829614605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.8</v>
+      </c>
+      <c r="B30">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.9</v>
+      </c>
+      <c r="B31">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>0.92024539877300615</v>
+      </c>
+      <c r="C31">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D31">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1.0224948875255624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>Table3[[#This Row],[load]]/Table3[[#This Row],[quotient]]</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <f>1/Table3[[#This Row],[quotient]]</f>
+        <v>1.1111111111111112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>